--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H2">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>86.09667233333334</v>
+        <v>0.03508633333333333</v>
       </c>
       <c r="N2">
-        <v>258.290017</v>
+        <v>0.105259</v>
       </c>
       <c r="O2">
-        <v>0.9236051571299395</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="P2">
-        <v>0.9236051571299394</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="Q2">
-        <v>563.0729832311604</v>
+        <v>0.1604782573496667</v>
       </c>
       <c r="R2">
-        <v>5067.656849080444</v>
+        <v>1.444304316147</v>
       </c>
       <c r="S2">
-        <v>0.2184517863528418</v>
+        <v>0.0007448183300034061</v>
       </c>
       <c r="T2">
-        <v>0.2184517863528418</v>
+        <v>0.0007448183300034061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H3">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.911922333333333</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N3">
         <v>14.735767</v>
       </c>
       <c r="O3">
-        <v>0.05269282395635591</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="P3">
-        <v>0.0526928239563559</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="Q3">
-        <v>32.12401462999356</v>
+        <v>22.46620439934567</v>
       </c>
       <c r="R3">
-        <v>289.116131669942</v>
+        <v>202.195839594111</v>
       </c>
       <c r="S3">
-        <v>0.01246294634929408</v>
+        <v>0.1042710777060328</v>
       </c>
       <c r="T3">
-        <v>0.01246294634929408</v>
+        <v>0.1042710777060328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H4">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.209456</v>
+        <v>2.868124666666667</v>
       </c>
       <c r="N4">
-        <v>6.628368</v>
+        <v>8.604374</v>
       </c>
       <c r="O4">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="P4">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="Q4">
-        <v>14.44986138861867</v>
+        <v>13.11826014977133</v>
       </c>
       <c r="R4">
-        <v>130.048752497568</v>
+        <v>118.064341347942</v>
       </c>
       <c r="S4">
-        <v>0.005606019338347147</v>
+        <v>0.06088501195531715</v>
       </c>
       <c r="T4">
-        <v>0.005606019338347147</v>
+        <v>0.06088501195531715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J5">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>86.09667233333334</v>
+        <v>0.03508633333333333</v>
       </c>
       <c r="N5">
-        <v>258.290017</v>
+        <v>0.105259</v>
       </c>
       <c r="O5">
-        <v>0.9236051571299395</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="P5">
-        <v>0.9236051571299394</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="Q5">
-        <v>1263.456412065305</v>
+        <v>0.5148869477118889</v>
       </c>
       <c r="R5">
-        <v>11371.10770858774</v>
+        <v>4.633982529407</v>
       </c>
       <c r="S5">
-        <v>0.4901750188950355</v>
+        <v>0.002389714612240066</v>
       </c>
       <c r="T5">
-        <v>0.4901750188950355</v>
+        <v>0.002389714612240066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J6">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.911922333333333</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N6">
         <v>14.735767</v>
       </c>
       <c r="O6">
-        <v>0.05269282395635591</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="P6">
-        <v>0.0526928239563559</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="Q6">
-        <v>72.08176111138789</v>
+        <v>72.08176111138791</v>
       </c>
       <c r="R6">
-        <v>648.735850002491</v>
+        <v>648.7358500024911</v>
       </c>
       <c r="S6">
-        <v>0.02796509501820134</v>
+        <v>0.3345488530431124</v>
       </c>
       <c r="T6">
-        <v>0.02796509501820134</v>
+        <v>0.3345488530431124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J7">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.209456</v>
+        <v>2.868124666666667</v>
       </c>
       <c r="N7">
-        <v>6.628368</v>
+        <v>8.604374</v>
       </c>
       <c r="O7">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="P7">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="Q7">
-        <v>32.42345232076267</v>
+        <v>42.08932125358911</v>
       </c>
       <c r="R7">
-        <v>291.811070886864</v>
+        <v>378.803891282302</v>
       </c>
       <c r="S7">
-        <v>0.01257911725501666</v>
+        <v>0.1953466998259389</v>
       </c>
       <c r="T7">
-        <v>0.01257911725501667</v>
+        <v>0.1953466998259389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H8">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>86.09667233333334</v>
+        <v>0.03508633333333333</v>
       </c>
       <c r="N8">
-        <v>258.290017</v>
+        <v>0.105259</v>
       </c>
       <c r="O8">
-        <v>0.9236051571299395</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="P8">
-        <v>0.9236051571299394</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="Q8">
-        <v>554.1199911674523</v>
+        <v>0.2919487131843333</v>
       </c>
       <c r="R8">
-        <v>4987.079920507071</v>
+        <v>2.627538418659</v>
       </c>
       <c r="S8">
-        <v>0.2149783518820622</v>
+        <v>0.001355004451019172</v>
       </c>
       <c r="T8">
-        <v>0.2149783518820621</v>
+        <v>0.001355004451019172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H9">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.911922333333333</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N9">
         <v>14.735767</v>
       </c>
       <c r="O9">
-        <v>0.05269282395635591</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="P9">
-        <v>0.0526928239563559</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="Q9">
-        <v>31.61323528770233</v>
+        <v>40.87145244999634</v>
       </c>
       <c r="R9">
-        <v>284.519117589321</v>
+        <v>367.843072049967</v>
       </c>
       <c r="S9">
-        <v>0.01226478258886049</v>
+        <v>0.1896942767286544</v>
       </c>
       <c r="T9">
-        <v>0.01226478258886048</v>
+        <v>0.1896942767286544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H10">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.209456</v>
+        <v>2.868124666666667</v>
       </c>
       <c r="N10">
-        <v>6.628368</v>
+        <v>8.604374</v>
       </c>
       <c r="O10">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="P10">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="Q10">
-        <v>14.220105214576</v>
+        <v>23.86528389075266</v>
       </c>
       <c r="R10">
-        <v>127.980946931184</v>
+        <v>214.787555016774</v>
       </c>
       <c r="S10">
-        <v>0.005516882320340706</v>
+        <v>0.1107645433476818</v>
       </c>
       <c r="T10">
-        <v>0.005516882320340706</v>
+        <v>0.1107645433476818</v>
       </c>
     </row>
   </sheetData>
